--- a/BackTest/2020-01-11 BackTest DAD.xlsx
+++ b/BackTest/2020-01-11 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-208203.35496723</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-222875.52666723</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-222327.58356723</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-223599.88076723</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-222308.19386723</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-222323.93506723</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-220886.32986723</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-220886.32986723</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-219150.65856723</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-209562.180057514</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-213250.034757514</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-209750.136216178</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-217148.912716178</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-219986.155916178</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-216842.800016178</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-212901.769930092</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-218720.559230092</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-218630.3438300921</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-218711.166530092</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-219141.803230092</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-219056.619830092</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-219318.492030092</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-219318.492030092</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-212217.526030092</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-212217.526030092</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-212217.526030092</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-212217.526030092</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-211161.112930092</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-211171.112930092</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-212986.797330092</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-212541.612830092</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-212533.298830092</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-214083.551930092</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-208954.936930092</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-208784.353930092</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-217540.6804300919</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-217285.204830092</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-222010.456630092</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-222010.456630092</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-222010.456630092</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-222010.456630092</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-222010.456630092</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-222010.456630092</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-222010.456630092</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-221752.001030092</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-222593.729530092</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-222593.729530092</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-226121.331130092</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-226121.331130092</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-226154.385430092</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-238281.525830092</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-241805.278630092</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-239266.545830092</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-241120.089830092</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-241117.089830092</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-249745.7142371639</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-270005.7993371639</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-265945.9977371638</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -7447,17 +7447,11 @@
         <v>-509702.4432847167</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>197.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7486,17 +7480,11 @@
         <v>-508306.9130847167</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>193.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7525,17 +7513,11 @@
         <v>-507725.2402847167</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>194.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7564,17 +7546,11 @@
         <v>-513204.0123847167</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7603,17 +7579,11 @@
         <v>-513201.0123847167</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>193.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7642,17 +7612,11 @@
         <v>-516257.6489847167</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7681,17 +7645,11 @@
         <v>-515138.9707847167</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>193.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7720,17 +7678,11 @@
         <v>-506266.7914847167</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7759,17 +7711,11 @@
         <v>-506161.7914847167</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7798,17 +7744,11 @@
         <v>-507236.1696847167</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>205.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7841,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7874,17 +7810,11 @@
         <v>-507230.1696847167</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7913,17 +7843,11 @@
         <v>-511325.2525847167</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>202.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7952,17 +7876,11 @@
         <v>-511325.2525847167</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>200.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7991,17 +7909,11 @@
         <v>-510874.8509847167</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>200.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8030,17 +7942,11 @@
         <v>-510874.8509847167</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8069,17 +7975,11 @@
         <v>-517730.0127847167</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8112,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8145,7 +8041,7 @@
         <v>-539400.2562847167</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>201.9</v>
@@ -8153,7 +8049,7 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8184,7 +8080,7 @@
         <v>-528896.8246847166</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>192.7</v>
@@ -8223,7 +8119,7 @@
         <v>-526407.5099847167</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>197</v>
@@ -8262,7 +8158,7 @@
         <v>-538375.0447847167</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>201.7</v>
@@ -8301,7 +8197,7 @@
         <v>-538367.9908847166</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>199.9</v>
@@ -8340,7 +8236,7 @@
         <v>-517277.8647847166</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>200</v>
@@ -8379,7 +8275,7 @@
         <v>-518312.3556847166</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>202</v>
@@ -8418,7 +8314,7 @@
         <v>-518309.2547847166</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>196</v>
@@ -8457,11 +8353,9 @@
         <v>-518766.9697847166</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8496,9 +8390,11 @@
         <v>-518360.9697847166</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>196.1</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9088,9 +8984,11 @@
         <v>-531836.0077035986</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>210.1</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9125,9 +9023,11 @@
         <v>-524477.0287188836</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>209</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9162,9 +9062,11 @@
         <v>-524482.9287188837</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>214.6</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9236,11 +9138,9 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>205.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9275,11 +9175,9 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>210.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9314,7 +9212,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>210.9</v>
@@ -9353,11 +9251,9 @@
         <v>-546611.4021188837</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>210.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9392,7 +9288,7 @@
         <v>-545630.9113188836</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>210</v>
@@ -9431,11 +9327,9 @@
         <v>-539756.5132188837</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9729,11 +9623,9 @@
         <v>-616374.4663803267</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -11951,11 +11843,9 @@
         <v>-635148.6270205493</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -11990,11 +11880,9 @@
         <v>-635148.6270205493</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12140,11 +12028,9 @@
         <v>-613217.2318348623</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12401,11 +12287,9 @@
         <v>-622051.8438348622</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12440,7 +12324,7 @@
         <v>-617719.5076348622</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>209.1</v>
@@ -12479,11 +12363,9 @@
         <v>-620293.9367348622</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>214.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12666,11 +12548,9 @@
         <v>-584900.0184348621</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12705,11 +12585,9 @@
         <v>-564314.1183348622</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>218.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12744,16 +12622,18 @@
         <v>-581177.0071404811</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L355" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
       <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -12779,11 +12659,15 @@
         <v>-576215.4736404811</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12816,7 +12700,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12849,7 +12737,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12878,15 +12770,15 @@
         <v>-584146.7855404812</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="J359" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12915,17 +12807,13 @@
         <v>-581057.7198404812</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>219</v>
-      </c>
-      <c r="J360" t="n">
-        <v>214.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -12959,12 +12847,10 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>214.5</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
@@ -12999,7 +12885,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13032,7 +12922,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13061,11 +12955,15 @@
         <v>-588649.3003404812</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13098,7 +12996,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13131,7 +13033,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13164,7 +13070,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13197,7 +13107,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13230,7 +13144,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13259,11 +13177,15 @@
         <v>-588635.0281404812</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +13214,15 @@
         <v>-588635.0281404812</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +13251,15 @@
         <v>-585744.4075404812</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13362,7 +13292,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13395,7 +13329,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13428,7 +13366,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13457,11 +13399,15 @@
         <v>-575358.8870442022</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13490,11 +13436,15 @@
         <v>-559985.6707479232</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13523,11 +13473,15 @@
         <v>-576773.1843479231</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13556,11 +13510,15 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13589,11 +13547,15 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13622,11 +13584,15 @@
         <v>-575545.2349479232</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13655,11 +13621,15 @@
         <v>-578788.7091479233</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13688,11 +13658,15 @@
         <v>-574419.4625479233</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +13695,15 @@
         <v>-555703.1006607884</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13758,7 +13736,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13787,11 +13769,15 @@
         <v>-532200.3928898943</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13820,11 +13806,15 @@
         <v>-522652.1159898943</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13853,11 +13843,15 @@
         <v>-543513.1069898943</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13886,11 +13880,15 @@
         <v>-547625.8140898943</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13919,11 +13917,15 @@
         <v>-547616.0940898943</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13952,11 +13954,15 @@
         <v>-547748.7252898943</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13985,11 +13991,15 @@
         <v>-547712.0052898943</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14018,11 +14028,15 @@
         <v>-550398.1449898944</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14051,11 +14065,15 @@
         <v>-558794.3826898944</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14084,11 +14102,15 @@
         <v>-560521.9633898945</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14117,11 +14139,15 @@
         <v>-560501.9533898945</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14150,11 +14176,15 @@
         <v>-560501.9533898945</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14183,11 +14213,15 @@
         <v>-566949.0351898945</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14216,11 +14250,15 @@
         <v>-617561.3473898945</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14249,11 +14287,15 @@
         <v>-620627.1137898945</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14282,11 +14324,15 @@
         <v>-619879.3306898945</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14319,7 +14365,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14352,7 +14402,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14385,7 +14439,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14418,7 +14476,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14451,7 +14513,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14484,7 +14550,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14517,7 +14587,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14550,7 +14624,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14583,7 +14661,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14616,7 +14698,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14649,7 +14735,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14682,7 +14772,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14715,7 +14809,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14744,11 +14842,15 @@
         <v>-691459.5249898945</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14777,11 +14879,15 @@
         <v>-718017.1140898945</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14810,11 +14916,15 @@
         <v>-752499.2572898945</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14843,11 +14953,15 @@
         <v>-732076.4003898945</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14876,11 +14990,15 @@
         <v>-765743.7880898945</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14909,11 +15027,15 @@
         <v>-717511.4051898945</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +15064,15 @@
         <v>-724617.5253898945</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14979,7 +15105,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15012,7 +15142,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15045,7 +15179,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15078,7 +15216,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15111,7 +15253,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15144,7 +15290,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15173,11 +15323,15 @@
         <v>-735393.0307898945</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15210,7 +15364,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15243,7 +15401,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15276,7 +15438,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15309,7 +15475,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15342,7 +15512,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15375,7 +15549,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15408,7 +15586,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15441,7 +15623,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15474,7 +15660,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15507,7 +15697,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15540,7 +15734,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15573,7 +15771,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15606,7 +15808,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15639,7 +15845,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15672,7 +15882,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15705,7 +15919,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15738,7 +15956,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15771,7 +15993,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15804,7 +16030,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15837,7 +16067,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15870,7 +16104,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15903,7 +16141,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15936,7 +16178,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15969,7 +16215,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16002,7 +16252,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16035,7 +16289,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16068,7 +16326,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16101,7 +16363,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16134,7 +16400,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16167,7 +16437,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16200,7 +16474,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16233,7 +16511,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16266,7 +16548,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16299,7 +16585,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16332,7 +16622,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16365,7 +16659,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16398,7 +16696,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16431,7 +16733,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16464,7 +16770,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16497,7 +16807,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16526,15 +16840,13 @@
         <v>-777975.2652669975</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>205.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L469" t="n">
@@ -16750,11 +17062,9 @@
         <v>-782670.0624669975</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>205.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16789,11 +17099,9 @@
         <v>-782670.0624669975</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>203.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16828,11 +17136,9 @@
         <v>-782585.3791669975</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>203.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -17311,11 +17617,9 @@
         <v>-802471.6104669976</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17350,11 +17654,9 @@
         <v>-797853.0806669976</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -17389,11 +17691,9 @@
         <v>-780539.9392669976</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -17428,7 +17728,7 @@
         <v>-775924.9106669977</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>207.3</v>
@@ -17467,9 +17767,11 @@
         <v>-762302.6845669977</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>207.6</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17504,9 +17806,11 @@
         <v>-762302.6845669977</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>208.2</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17541,7 +17845,7 @@
         <v>-762302.6845669977</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>208.2</v>
@@ -17580,7 +17884,7 @@
         <v>-762302.6845669977</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>208.2</v>
@@ -17619,11 +17923,9 @@
         <v>-765436.7384669977</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>208.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17695,11 +17997,9 @@
         <v>-757632.3503669978</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>211.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17808,11 +18108,9 @@
         <v>-758063.5872669978</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17884,11 +18182,9 @@
         <v>-758063.5872669978</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17923,11 +18219,9 @@
         <v>-757360.7757669978</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17962,11 +18256,9 @@
         <v>-757360.7757669978</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -18001,11 +18293,9 @@
         <v>-757357.7757669978</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -18040,11 +18330,9 @@
         <v>-757366.7757669978</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -18190,7 +18478,7 @@
         <v>-760315.5908669978</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>204.3</v>
@@ -18229,7 +18517,7 @@
         <v>-760192.6445669979</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>205.1</v>
@@ -18268,7 +18556,7 @@
         <v>-760189.6445669979</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>205.2</v>
@@ -18307,7 +18595,7 @@
         <v>-748659.6816669978</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>209.3</v>
@@ -18346,11 +18634,9 @@
         <v>-731746.4608669978</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18385,11 +18671,9 @@
         <v>-729872.3266669979</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>213.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18424,11 +18708,9 @@
         <v>-730635.0973669979</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>214.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18944,11 +19226,9 @@
         <v>-665118.2551669979</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>213.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18983,11 +19263,9 @@
         <v>-665159.5322669978</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>213.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -19059,7 +19337,7 @@
         <v>-672718.1176669978</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>211.9</v>
@@ -19098,7 +19376,7 @@
         <v>-672361.7938669978</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>210</v>
@@ -19137,7 +19415,7 @@
         <v>-678806.2176669978</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>211</v>
@@ -19176,7 +19454,7 @@
         <v>-664197.3534669979</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>210.9</v>
@@ -19215,11 +19493,9 @@
         <v>-662747.0887669978</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -19254,11 +19530,9 @@
         <v>-662648.2348669978</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>213.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -19848,9 +20122,11 @@
         <v>-723079.7698669977</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>211.3</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -20884,11 +21160,9 @@
         <v>-767190.3185947366</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -21034,11 +21308,9 @@
         <v>-766995.1380947367</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -21776,11 +22048,9 @@
         <v>-777470.8864947367</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>212.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21815,11 +22085,9 @@
         <v>-777948.7873690577</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>212.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21854,11 +22122,9 @@
         <v>-775306.2354690577</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>209.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21893,11 +22159,9 @@
         <v>-792592.0869690577</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>210.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21932,7 +22196,7 @@
         <v>-796570.0810690577</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="n">
         <v>208</v>
@@ -21971,7 +22235,7 @@
         <v>-813742.4899690577</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>205.9</v>
@@ -22010,7 +22274,7 @@
         <v>-813723.6162690577</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" t="n">
         <v>205.8</v>
@@ -22049,7 +22313,7 @@
         <v>-813721.2162690577</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>205.9</v>
@@ -22088,7 +22352,7 @@
         <v>-814045.9310690577</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>209</v>
@@ -22127,7 +22391,7 @@
         <v>-814045.9310690577</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>206</v>
@@ -22166,7 +22430,7 @@
         <v>-814031.0059690577</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>206</v>
@@ -22205,7 +22469,7 @@
         <v>-814036.0059690577</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>209</v>
@@ -22244,7 +22508,7 @@
         <v>-814033.6059690577</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>206.1</v>
@@ -22283,9 +22547,11 @@
         <v>-813971.4679690576</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>209</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22320,9 +22586,11 @@
         <v>-817641.8284690576</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>209.5</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -22357,9 +22625,11 @@
         <v>-817639.3284690576</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>206</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22394,9 +22664,11 @@
         <v>-827037.3262690576</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>207.9</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -22431,7 +22703,7 @@
         <v>-835033.8009690576</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>206.1</v>
@@ -22470,7 +22742,7 @@
         <v>-835033.8009690576</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>204</v>
@@ -22509,7 +22781,7 @@
         <v>-835022.8009690576</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>204</v>
@@ -22548,9 +22820,11 @@
         <v>-835022.8009690576</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>208.9</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22622,11 +22896,9 @@
         <v>-835022.8009690576</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>208.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22772,11 +23044,9 @@
         <v>-830509.3214690577</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>209.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22811,11 +23081,9 @@
         <v>-830509.3214690577</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>209.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -22850,11 +23118,9 @@
         <v>-831031.0519690576</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>209.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -22889,11 +23155,9 @@
         <v>-833373.3979690577</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>209.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22928,7 +23192,7 @@
         <v>-850988.5841690577</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>207.1</v>
@@ -22967,7 +23231,7 @@
         <v>-851430.8716690576</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>206</v>
@@ -23006,7 +23270,7 @@
         <v>-848376.1175690576</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>205</v>
@@ -23045,11 +23309,9 @@
         <v>-848376.1175690576</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>206.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -23084,11 +23346,9 @@
         <v>-848406.1175690576</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>206.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -23123,11 +23383,9 @@
         <v>-850675.4183690576</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -23162,11 +23420,9 @@
         <v>-850645.8420690576</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>203.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -23201,7 +23457,7 @@
         <v>-850645.8420690576</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>205.2</v>
@@ -23240,7 +23496,7 @@
         <v>-859699.4597690576</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>205.2</v>
@@ -23279,7 +23535,7 @@
         <v>-859687.7638626256</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>203.5</v>
@@ -23318,9 +23574,11 @@
         <v>-859687.7638626256</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>205.2</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -23355,9 +23613,11 @@
         <v>-859687.7638626256</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>205.2</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -23392,9 +23652,11 @@
         <v>-850289.8700319546</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>205.2</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -23799,11 +24061,9 @@
         <v>-898642.2898319544</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>205.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -23838,11 +24098,9 @@
         <v>-898436.9334319544</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>205.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23877,11 +24135,9 @@
         <v>-898436.9334319544</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23916,7 +24172,7 @@
         <v>-898436.9334319544</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>206</v>
@@ -23955,7 +24211,7 @@
         <v>-897806.6206319544</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>206</v>
@@ -23994,9 +24250,11 @@
         <v>-904626.0415319544</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>207</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -24031,7 +24289,7 @@
         <v>-903909.7026319545</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>206</v>
@@ -24070,7 +24328,7 @@
         <v>-903907.3026319544</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>206.2</v>
@@ -24109,11 +24367,9 @@
         <v>-916304.7392592655</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="n">
-        <v>207.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -24148,11 +24404,9 @@
         <v>-956854.8570592655</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>206.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -24187,11 +24441,9 @@
         <v>-956802.0178592654</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>203.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -24263,11 +24515,9 @@
         <v>-956843.7271592654</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -24302,11 +24552,9 @@
         <v>-956843.7271592654</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24341,7 +24589,7 @@
         <v>-954883.7463592654</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>205</v>
@@ -24380,11 +24628,9 @@
         <v>-953479.7294592654</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>206.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -24419,7 +24665,7 @@
         <v>-959929.0859592654</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>207.7</v>
@@ -24458,7 +24704,7 @@
         <v>-947649.7088592653</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>205</v>
@@ -24497,9 +24743,11 @@
         <v>-956425.6981592653</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>207</v>
+      </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -24534,9 +24782,11 @@
         <v>-958225.6981592653</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>205.9</v>
+      </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -24571,9 +24821,11 @@
         <v>-956002.9371592653</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>205.1</v>
+      </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -24608,9 +24860,11 @@
         <v>-956002.9371592653</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>207.9</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24645,9 +24899,11 @@
         <v>-956000.5371592653</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>207.9</v>
+      </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -24867,11 +25123,9 @@
         <v>-928975.4672592652</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>212.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24906,11 +25160,9 @@
         <v>-939727.9000592652</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>212.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24945,11 +25197,9 @@
         <v>-937378.6185592652</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="n">
-        <v>208.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -24984,11 +25234,9 @@
         <v>-940810.8729592651</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -25023,11 +25271,9 @@
         <v>-940810.8729592651</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>208.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -25062,11 +25308,9 @@
         <v>-925159.0597592652</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
-      </c>
-      <c r="I695" t="n">
-        <v>208.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -25101,11 +25345,9 @@
         <v>-924393.6637592652</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
-      </c>
-      <c r="I696" t="n">
-        <v>208.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -25140,11 +25382,9 @@
         <v>-923200.8446592652</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>210.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -25253,9 +25493,11 @@
         <v>-926797.0119592652</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>209</v>
+      </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -25327,9 +25569,11 @@
         <v>-937787.5676592652</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>207.1</v>
+      </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -25364,7 +25608,7 @@
         <v>-937783.2448592653</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>206.5</v>
@@ -25514,9 +25758,11 @@
         <v>-928819.3379592653</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>209.2</v>
+      </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -25588,11 +25834,9 @@
         <v>-917258.3921592653</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
-      </c>
-      <c r="I709" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -25627,7 +25871,7 @@
         <v>-925980.3637592654</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>208.1</v>
@@ -25666,11 +25910,9 @@
         <v>-924850.7002592654</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
-      </c>
-      <c r="I711" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -25705,11 +25947,9 @@
         <v>-955418.5822592654</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
-      </c>
-      <c r="I712" t="n">
-        <v>208.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -25744,11 +25984,9 @@
         <v>-955415.5822592654</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
-      </c>
-      <c r="I713" t="n">
-        <v>208.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -25783,11 +26021,9 @@
         <v>-955415.5822592654</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
-      </c>
-      <c r="I714" t="n">
-        <v>209.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -25822,7 +26058,7 @@
         <v>-955415.5822592654</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>209.2</v>
@@ -25861,11 +26097,9 @@
         <v>-971750.6974592654</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
-      </c>
-      <c r="I716" t="n">
-        <v>209.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -25937,9 +26171,11 @@
         <v>-978151.0662592653</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>206.2</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -25974,9 +26210,11 @@
         <v>-978151.0662592653</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>206</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -26011,7 +26249,7 @@
         <v>-978151.0662592653</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>206</v>
@@ -26050,7 +26288,7 @@
         <v>-978151.0662592653</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>206</v>
@@ -26089,7 +26327,7 @@
         <v>-978151.0662592653</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>206</v>
@@ -26128,7 +26366,7 @@
         <v>-978112.1895592653</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>206</v>
@@ -26167,7 +26405,7 @@
         <v>-978467.0924592653</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>207</v>
@@ -26206,7 +26444,7 @@
         <v>-981015.4244592653</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>206</v>
@@ -26245,7 +26483,7 @@
         <v>-986803.3790592654</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>205.6</v>
@@ -26284,7 +26522,7 @@
         <v>-981554.2007592653</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>205.2</v>
@@ -26323,7 +26561,7 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
         <v>206</v>
@@ -26362,7 +26600,7 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I729" t="n">
         <v>205.2</v>
@@ -26401,7 +26639,7 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>205.2</v>
@@ -26440,7 +26678,7 @@
         <v>-983768.2693592653</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731" t="n">
         <v>205.2</v>
@@ -26479,7 +26717,7 @@
         <v>-992544.2586592654</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>206</v>
@@ -26518,7 +26756,7 @@
         <v>-992544.2586592654</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I733" t="n">
         <v>205.3</v>
@@ -26557,7 +26795,7 @@
         <v>-990842.0000592654</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734" t="n">
         <v>205.3</v>
@@ -26596,7 +26834,7 @@
         <v>-979768.7522592654</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I735" t="n">
         <v>205.9</v>
@@ -26635,7 +26873,7 @@
         <v>-970847.4227592654</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>207</v>
@@ -26674,7 +26912,7 @@
         <v>-968673.1820592654</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>209.1</v>
@@ -26713,11 +26951,9 @@
         <v>-968673.1820592654</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>210.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26789,11 +27025,9 @@
         <v>-967630.6637592654</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
-      </c>
-      <c r="I740" t="n">
-        <v>210.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -26902,11 +27136,9 @@
         <v>-966554.2983592656</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
-      </c>
-      <c r="I743" t="n">
-        <v>208.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -26941,11 +27173,9 @@
         <v>-968683.2752592656</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>210.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -26980,11 +27210,9 @@
         <v>-968697.4052592656</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="n">
-        <v>210.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -27019,7 +27247,7 @@
         <v>-965856.8388592656</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>210</v>
@@ -27058,7 +27286,7 @@
         <v>-965856.8388592656</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>210.8</v>
@@ -27097,7 +27325,7 @@
         <v>-971743.4645592655</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>210.8</v>
@@ -27136,7 +27364,7 @@
         <v>-976850.2406592655</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>208.1</v>
@@ -27175,7 +27403,7 @@
         <v>-976850.2406592655</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>207</v>
@@ -27214,7 +27442,7 @@
         <v>-974946.9231592655</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>207</v>
@@ -27253,7 +27481,7 @@
         <v>-975165.2212592656</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>208.9</v>
@@ -27292,7 +27520,7 @@
         <v>-970604.7671251065</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>208</v>
@@ -27331,7 +27559,7 @@
         <v>-969104.0030202186</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>209.9</v>
@@ -27370,7 +27598,7 @@
         <v>-970821.6823202185</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>210</v>
@@ -27409,7 +27637,7 @@
         <v>-967301.6805202186</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>208.1</v>
@@ -27448,7 +27676,7 @@
         <v>-972206.0913202185</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>209.7</v>
@@ -27487,7 +27715,7 @@
         <v>-973208.1588202185</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>208</v>
@@ -27526,7 +27754,7 @@
         <v>-993727.8710202185</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>207.8</v>
@@ -27565,7 +27793,7 @@
         <v>-993727.8710202185</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>207.1</v>
@@ -27604,7 +27832,7 @@
         <v>-1012567.174320219</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>207.1</v>
@@ -27643,7 +27871,7 @@
         <v>-1037509.343320218</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>206.6</v>
@@ -27682,7 +27910,7 @@
         <v>-1037420.444920219</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>205.9</v>
@@ -27721,7 +27949,7 @@
         <v>-1023915.748620219</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>206</v>
@@ -27760,11 +27988,9 @@
         <v>-1014224.377820219</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="n">
-        <v>210.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -27799,7 +28025,7 @@
         <v>-1033939.002320219</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>211</v>
@@ -27838,7 +28064,7 @@
         <v>-1034548.879920219</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>210.9</v>
@@ -27877,7 +28103,7 @@
         <v>-1034548.879920219</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>208</v>
@@ -27916,7 +28142,7 @@
         <v>-1034548.879920219</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>208</v>
@@ -27955,7 +28181,7 @@
         <v>-1035464.546620219</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>208</v>
@@ -27994,7 +28220,7 @@
         <v>-1078364.238220219</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>206.5</v>
@@ -28033,7 +28259,7 @@
         <v>-1086135.032820218</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I772" t="n">
         <v>205</v>
@@ -28072,11 +28298,9 @@
         <v>-1084386.255051625</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
-      </c>
-      <c r="I773" t="n">
-        <v>204.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -28111,7 +28335,7 @@
         <v>-1084398.255051625</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>207.6</v>
@@ -28150,7 +28374,7 @@
         <v>-1081110.630051625</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>206.4</v>
@@ -28189,7 +28413,7 @@
         <v>-1076327.304751626</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>208.8</v>
@@ -28228,7 +28452,7 @@
         <v>-1076327.304751626</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>208.9</v>
@@ -28267,7 +28491,7 @@
         <v>-1072553.545351625</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>208.9</v>
@@ -28306,7 +28530,7 @@
         <v>-1072553.545351625</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>210</v>
@@ -28345,7 +28569,7 @@
         <v>-1073610.505551626</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>210</v>
@@ -28384,7 +28608,7 @@
         <v>-1073610.505551626</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>209</v>
@@ -28423,7 +28647,7 @@
         <v>-1073610.505551626</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>209</v>
@@ -28462,7 +28686,7 @@
         <v>-1073460.020251625</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" t="n">
         <v>209</v>
@@ -28501,7 +28725,7 @@
         <v>-1089752.247151625</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>210</v>
@@ -28540,7 +28764,7 @@
         <v>-1087229.317651625</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I785" t="n">
         <v>209</v>
@@ -28579,7 +28803,7 @@
         <v>-1083198.894051625</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
         <v>210.8</v>
@@ -28618,7 +28842,7 @@
         <v>-1074237.674151625</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I787" t="n">
         <v>210.9</v>
@@ -28657,7 +28881,7 @@
         <v>-1074096.197751625</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>211.4</v>
@@ -28696,9 +28920,11 @@
         <v>-1074110.538151625</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>211.6</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -28733,9 +28959,11 @@
         <v>-1074107.538151625</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>211.4</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -28844,9 +29072,11 @@
         <v>-1096607.611251625</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>209</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -28881,9 +29111,11 @@
         <v>-1140426.960951625</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>206.5</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -28918,11 +29150,9 @@
         <v>-1140426.960951625</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -28957,7 +29187,7 @@
         <v>-1140426.960951625</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I796" t="n">
         <v>205</v>
@@ -28996,11 +29226,9 @@
         <v>-1140426.960951625</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
-      </c>
-      <c r="I797" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -29035,7 +29263,7 @@
         <v>-1122656.159551625</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>205</v>
@@ -29074,9 +29302,11 @@
         <v>-1122632.919851625</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>206.8</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -29111,9 +29341,11 @@
         <v>-1122632.919851625</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>208</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -29185,9 +29417,11 @@
         <v>-1118426.543951625</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>209.9</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -29222,9 +29456,11 @@
         <v>-1116622.721651625</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>210.7</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -29259,7 +29495,7 @@
         <v>-1088285.659551625</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>211.6</v>
@@ -29298,9 +29534,11 @@
         <v>-1060230.070151625</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>213.9</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -29520,7 +29758,7 @@
         <v>-1069448.291451625</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>206</v>
@@ -29559,11 +29797,9 @@
         <v>-1066218.536551625</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
-      </c>
-      <c r="I812" t="n">
-        <v>206.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -29598,9 +29834,11 @@
         <v>-1066215.536551625</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>207</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -29635,9 +29873,11 @@
         <v>-1066861.165151625</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>211</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -29672,9 +29912,11 @@
         <v>-1066813.205151625</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>206.8</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -29709,9 +29951,11 @@
         <v>-1068500.350751625</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>211</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -29746,9 +29990,11 @@
         <v>-1066961.844151625</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>207.1</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -29783,9 +30029,11 @@
         <v>-1065640.175951625</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>207.2</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -29820,9 +30068,11 @@
         <v>-1067166.092451625</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>208.9</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -29857,9 +30107,11 @@
         <v>-1072498.275051625</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>207.4</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -29894,7 +30146,7 @@
         <v>-1097359.020851625</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I821" t="n">
         <v>206.1</v>
@@ -29933,9 +30185,11 @@
         <v>-1111797.368551625</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>204.3</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -29970,9 +30224,11 @@
         <v>-1111797.368551625</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>203.5</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -30007,9 +30263,11 @@
         <v>-1111139.691451625</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>203.5</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -30044,9 +30302,11 @@
         <v>-1112354.191551625</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>208</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -30081,9 +30341,11 @@
         <v>-1124545.607051625</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>205.9</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -30118,7 +30380,7 @@
         <v>-1124542.607051625</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>203.5</v>
@@ -30157,9 +30419,11 @@
         <v>-1124542.607051625</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>206.9</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -30194,9 +30458,11 @@
         <v>-1125122.936551625</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>206.9</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -30231,7 +30497,7 @@
         <v>-1124755.055251625</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>205</v>
@@ -30270,9 +30536,11 @@
         <v>-1124755.055251625</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>207</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -30307,9 +30575,11 @@
         <v>-1124755.055251625</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>207</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -30344,9 +30614,11 @@
         <v>-1132498.382151625</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>207</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -30381,9 +30653,11 @@
         <v>-1130190.290151625</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>203.4</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -30418,9 +30692,11 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>209</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -30455,9 +30731,11 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -30492,9 +30770,11 @@
         <v>-1140020.321851625</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -30529,9 +30809,11 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>208</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -30566,9 +30848,11 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -30603,9 +30887,11 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -30640,9 +30926,11 @@
         <v>-1146544.785051625</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -30677,7 +30965,7 @@
         <v>-1146104.493651625</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>205.1</v>
@@ -30716,7 +31004,7 @@
         <v>-1144105.147051625</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>208</v>
@@ -30755,9 +31043,11 @@
         <v>-1144102.147051625</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>211.9</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -30792,9 +31082,11 @@
         <v>-1146445.523051625</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>212</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -30829,9 +31121,11 @@
         <v>-1143533.970751625</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>209.1</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -30866,9 +31160,11 @@
         <v>-1145174.333751625</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>213</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -30903,9 +31199,11 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>209.1</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -30940,9 +31238,11 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>210</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -30977,9 +31277,11 @@
         <v>-1148195.215151625</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>210</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -31014,9 +31316,11 @@
         <v>-1148192.215151625</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>205.9</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -31051,9 +31355,11 @@
         <v>-1150051.578151624</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>211.9</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -31088,9 +31394,11 @@
         <v>-1149632.722251624</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>209.9</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -31125,9 +31433,11 @@
         <v>-1148291.837551624</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>210</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -31162,9 +31472,11 @@
         <v>-1169149.854351624</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>213</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -31199,9 +31511,11 @@
         <v>-1169149.854351624</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>207.1</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -31236,9 +31550,11 @@
         <v>-1169146.854351624</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>207.1</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -31273,9 +31589,11 @@
         <v>-1169052.156193854</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>211</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -31310,9 +31628,11 @@
         <v>-1172745.019193854</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>211.7</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -31347,9 +31667,11 @@
         <v>-1169908.390993854</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>207</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -31384,9 +31706,11 @@
         <v>-1169908.390993854</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>210.5</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -31421,9 +31745,11 @@
         <v>-1169973.962293854</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>210.5</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -31458,9 +31784,11 @@
         <v>-1171544.054593854</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>208.1</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -31495,9 +31823,11 @@
         <v>-1170970.962893854</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>207.1</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -31532,9 +31862,11 @@
         <v>-1170970.962893854</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>209.9</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -31569,9 +31901,11 @@
         <v>-1169793.724793854</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>209.9</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -31606,7 +31940,7 @@
         <v>-1169984.291793854</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867" t="n">
         <v>210.4</v>
@@ -31645,9 +31979,11 @@
         <v>-1169984.291793854</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>208.1</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -31682,9 +32018,11 @@
         <v>-1169984.291793854</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>208.1</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -31719,7 +32057,7 @@
         <v>-1173685.183893854</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870" t="n">
         <v>208.1</v>
@@ -31758,7 +32096,7 @@
         <v>-1170615.017893854</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>207.3</v>
@@ -31797,7 +32135,7 @@
         <v>-1170612.017893854</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="n">
         <v>208.1</v>
@@ -31836,7 +32174,7 @@
         <v>-1173538.446293854</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>211.3</v>
@@ -31853,6 +32191,6 @@
       <c r="M873" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest DAD.xlsx
+++ b/BackTest/2020-01-11 BackTest DAD.xlsx
@@ -1771,7 +1771,7 @@
         <v>-212533.298830092</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-214456.204430092</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-201941.697030092</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-201941.697030092</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-202240.720930092</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-208954.936930092</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-208784.353930092</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-215485.588930092</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-214830.327130092</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-285980.9219371638</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-502464.5710035986</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-511098.4071035986</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-531836.0077035986</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-524477.0287188836</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-524482.9287188837</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-539542.8053188836</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-546611.4021188837</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-539756.5132188837</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-545527.3015188837</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-598881.3621803267</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-598932.1030803267</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-598937.8030803266</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-598937.8030803266</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-594340.9029803267</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-600325.8442803266</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-581177.0071404811</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-576215.4736404811</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-576217.9036404812</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-585464.4676404812</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-584146.7855404812</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-581057.7198404812</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-585743.7973404812</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-587486.0588404812</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-588615.1891404812</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-588649.3003404812</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-589040.9556404812</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-572058.3632442022</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-578160.0876442022</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-575358.8870442022</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-559985.6707479232</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-576773.1843479231</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-575545.2349479232</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-578788.7091479233</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-574419.4625479233</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-555703.1006607884</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-525117.4230898943</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-532200.3928898943</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-543513.1069898943</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-547625.8140898943</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-558794.3826898944</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-560521.9633898945</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-619872.8798898944</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-642430.4600898944</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-671105.4190898944</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-693936.3693898944</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-683795.6885898944</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-691459.5249898945</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-718017.1140898945</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-752499.2572898945</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-732076.4003898945</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-765743.7880898945</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-724617.5253898945</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-665202.7331669979</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-665202.7331669979</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -24409,14 +24409,10 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>206</v>
-      </c>
-      <c r="J728" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
@@ -24446,3584 +24442,3034 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>206</v>
+      </c>
+      <c r="C730" t="n">
         <v>205.2</v>
       </c>
-      <c r="J729" t="n">
+      <c r="D730" t="n">
         <v>206</v>
       </c>
-      <c r="K729" t="inlineStr">
+      <c r="E730" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="F730" t="n">
+        <v>302.0961</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-991442.7035592654</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="C731" t="n">
+        <v>206</v>
+      </c>
+      <c r="D731" t="n">
+        <v>206</v>
+      </c>
+      <c r="E731" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="F731" t="n">
+        <v>7674.4342</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-983768.2693592653</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="C732" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="D732" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="E732" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="F732" t="n">
+        <v>8775.989299999999</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-992544.2586592654</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="C733" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="D733" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="E733" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="F733" t="n">
+        <v>771.6908</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-992544.2586592654</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="C734" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="D734" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="E734" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1702.2586</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-990842.0000592654</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>206</v>
+      </c>
+      <c r="C735" t="n">
+        <v>207</v>
+      </c>
+      <c r="D735" t="n">
+        <v>207</v>
+      </c>
+      <c r="E735" t="n">
+        <v>206</v>
+      </c>
+      <c r="F735" t="n">
+        <v>11073.2478</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-979768.7522592654</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>209</v>
+      </c>
+      <c r="C736" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="D736" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="E736" t="n">
+        <v>209</v>
+      </c>
+      <c r="F736" t="n">
+        <v>8921.3295</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-970847.4227592654</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>210</v>
+      </c>
+      <c r="C737" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="D737" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="E737" t="n">
+        <v>210</v>
+      </c>
+      <c r="F737" t="n">
+        <v>2174.2407</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-968673.1820592654</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="C738" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="D738" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="E738" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="F738" t="n">
+        <v>125.191</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-968673.1820592654</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="C739" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="D739" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="E739" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1042.5183</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-967630.6637592654</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="C740" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="D740" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="E740" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="F740" t="n">
+        <v>9521.4696</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-967630.6637592654</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="C741" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="D741" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="E741" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="F741" t="n">
+        <v>429.5013</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-968060.1650592654</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="C742" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="D742" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="E742" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="F742" t="n">
+        <v>389.6273</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-968449.7923592655</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="C743" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="D743" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="E743" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1895.494</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-966554.2983592656</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="C744" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="D744" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="E744" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="F744" t="n">
+        <v>2128.9769</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-968683.2752592656</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>210</v>
+      </c>
+      <c r="C745" t="n">
+        <v>210</v>
+      </c>
+      <c r="D745" t="n">
+        <v>210</v>
+      </c>
+      <c r="E745" t="n">
+        <v>210</v>
+      </c>
+      <c r="F745" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-968697.4052592656</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>209</v>
+      </c>
+      <c r="C746" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="D746" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="E746" t="n">
+        <v>209</v>
+      </c>
+      <c r="F746" t="n">
+        <v>2840.5664</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-965856.8388592656</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="C747" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="D747" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="E747" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="F747" t="n">
+        <v>618.188</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-965856.8388592656</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="C748" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="D748" t="n">
+        <v>209</v>
+      </c>
+      <c r="E748" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="F748" t="n">
+        <v>5886.6257</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-971743.4645592655</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="C749" t="n">
+        <v>207</v>
+      </c>
+      <c r="D749" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="E749" t="n">
+        <v>207</v>
+      </c>
+      <c r="F749" t="n">
+        <v>5106.7761</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-976850.2406592655</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>207</v>
+      </c>
+      <c r="C750" t="n">
+        <v>207</v>
+      </c>
+      <c r="D750" t="n">
+        <v>207</v>
+      </c>
+      <c r="E750" t="n">
+        <v>207</v>
+      </c>
+      <c r="F750" t="n">
+        <v>228.4284</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-976850.2406592655</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="C751" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="D751" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="E751" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1903.3175</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-974946.9231592655</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>208</v>
+      </c>
+      <c r="C752" t="n">
+        <v>208</v>
+      </c>
+      <c r="D752" t="n">
+        <v>208</v>
+      </c>
+      <c r="E752" t="n">
+        <v>208</v>
+      </c>
+      <c r="F752" t="n">
+        <v>218.2981</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-975165.2212592656</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>207</v>
+      </c>
+      <c r="C753" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="D753" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="E753" t="n">
+        <v>207</v>
+      </c>
+      <c r="F753" t="n">
+        <v>4560.454134159</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-970604.7671251065</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="C754" t="n">
+        <v>210</v>
+      </c>
+      <c r="D754" t="n">
+        <v>210</v>
+      </c>
+      <c r="E754" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1500.764104888</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-969104.0030202186</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="C755" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="D755" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="E755" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1717.6793</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-970821.6823202185</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
+      <c r="M755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="C756" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="D756" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="E756" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="F756" t="n">
+        <v>3520.0018</v>
+      </c>
+      <c r="G756" t="n">
+        <v>-967301.6805202186</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="n">
+        <v>1</v>
+      </c>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="C757" t="n">
+        <v>208</v>
+      </c>
+      <c r="D757" t="n">
+        <v>208</v>
+      </c>
+      <c r="E757" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="F757" t="n">
+        <v>4904.4108</v>
+      </c>
+      <c r="G757" t="n">
+        <v>-972206.0913202185</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="n">
+        <v>1</v>
+      </c>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="C758" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="D758" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="E758" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="F758" t="n">
+        <v>1002.0675</v>
+      </c>
+      <c r="G758" t="n">
+        <v>-973208.1588202185</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="n">
+        <v>1</v>
+      </c>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>208</v>
+      </c>
+      <c r="C759" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="D759" t="n">
+        <v>208</v>
+      </c>
+      <c r="E759" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="F759" t="n">
+        <v>20519.7122</v>
+      </c>
+      <c r="G759" t="n">
+        <v>-993727.8710202185</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="n">
+        <v>1</v>
+      </c>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>208</v>
+      </c>
+      <c r="C760" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="D760" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="E760" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="F760" t="n">
+        <v>4015.1486</v>
+      </c>
+      <c r="G760" t="n">
+        <v>-993727.8710202185</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="C761" t="n">
+        <v>206.6</v>
+      </c>
+      <c r="D761" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="E761" t="n">
+        <v>206.6</v>
+      </c>
+      <c r="F761" t="n">
+        <v>18839.3033</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-1012567.174320219</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C762" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="D762" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="E762" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="F762" t="n">
+        <v>24942.169</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-1037509.343320218</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>206</v>
+      </c>
+      <c r="C763" t="n">
+        <v>206</v>
+      </c>
+      <c r="D763" t="n">
+        <v>206</v>
+      </c>
+      <c r="E763" t="n">
+        <v>206</v>
+      </c>
+      <c r="F763" t="n">
+        <v>88.8984</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-1037420.444920219</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="C764" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="D764" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="E764" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="F764" t="n">
+        <v>13504.6963</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-1023915.748620219</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="n">
+        <v>1</v>
+      </c>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="C765" t="n">
+        <v>211</v>
+      </c>
+      <c r="D765" t="n">
+        <v>211</v>
+      </c>
+      <c r="E765" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="F765" t="n">
+        <v>9691.370800000001</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-1014224.377820219</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="C766" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="D766" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="E766" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="F766" t="n">
+        <v>19714.6245</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-1033939.002320219</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>208</v>
+      </c>
+      <c r="C767" t="n">
+        <v>208</v>
+      </c>
+      <c r="D767" t="n">
+        <v>208</v>
+      </c>
+      <c r="E767" t="n">
+        <v>208</v>
+      </c>
+      <c r="F767" t="n">
+        <v>609.8776</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-1034548.879920219</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="n">
+        <v>1</v>
+      </c>
+      <c r="M767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>208</v>
+      </c>
+      <c r="C768" t="n">
+        <v>208</v>
+      </c>
+      <c r="D768" t="n">
+        <v>208</v>
+      </c>
+      <c r="E768" t="n">
+        <v>208</v>
+      </c>
+      <c r="F768" t="n">
+        <v>2411.5603</v>
+      </c>
+      <c r="G768" t="n">
+        <v>-1034548.879920219</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
+      <c r="M768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>208</v>
+      </c>
+      <c r="C769" t="n">
+        <v>208</v>
+      </c>
+      <c r="D769" t="n">
+        <v>208</v>
+      </c>
+      <c r="E769" t="n">
+        <v>208</v>
+      </c>
+      <c r="F769" t="n">
+        <v>621.9281999999999</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-1034548.879920219</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="n">
+        <v>1</v>
+      </c>
+      <c r="M769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C770" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="D770" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="E770" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="F770" t="n">
+        <v>915.6667</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-1035464.546620219</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="n">
+        <v>1</v>
+      </c>
+      <c r="M770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="C771" t="n">
+        <v>205</v>
+      </c>
+      <c r="D771" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="E771" t="n">
+        <v>205</v>
+      </c>
+      <c r="F771" t="n">
+        <v>42899.6916</v>
+      </c>
+      <c r="G771" t="n">
+        <v>-1078364.238220219</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="n">
+        <v>1</v>
+      </c>
+      <c r="M771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>204.7</v>
+      </c>
+      <c r="C772" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="D772" t="n">
+        <v>204.7</v>
+      </c>
+      <c r="E772" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="F772" t="n">
+        <v>7770.7946</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-1086135.032820218</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="n">
+        <v>1</v>
+      </c>
+      <c r="M772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="C773" t="n">
+        <v>207.6</v>
+      </c>
+      <c r="D773" t="n">
+        <v>207.6</v>
+      </c>
+      <c r="E773" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1748.777768593</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-1084386.255051625</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="n">
+        <v>1</v>
+      </c>
+      <c r="M773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="C774" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="D774" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="E774" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="F774" t="n">
+        <v>12</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-1084398.255051625</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="n">
+        <v>1</v>
+      </c>
+      <c r="M774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="C775" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="D775" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="E775" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="F775" t="n">
+        <v>3287.625</v>
+      </c>
+      <c r="G775" t="n">
+        <v>-1081110.630051625</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="n">
+        <v>1</v>
+      </c>
+      <c r="M775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="C776" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="D776" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="E776" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="F776" t="n">
+        <v>4783.3253</v>
+      </c>
+      <c r="G776" t="n">
+        <v>-1076327.304751626</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="n">
+        <v>1</v>
+      </c>
+      <c r="M776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="C777" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="D777" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="E777" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="F777" t="n">
+        <v>3</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-1076327.304751626</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="n">
+        <v>1</v>
+      </c>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="C778" t="n">
+        <v>210</v>
+      </c>
+      <c r="D778" t="n">
+        <v>210</v>
+      </c>
+      <c r="E778" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="F778" t="n">
+        <v>3773.7594</v>
+      </c>
+      <c r="G778" t="n">
+        <v>-1072553.545351625</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="n">
+        <v>1</v>
+      </c>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>209</v>
+      </c>
+      <c r="C779" t="n">
+        <v>210</v>
+      </c>
+      <c r="D779" t="n">
+        <v>210</v>
+      </c>
+      <c r="E779" t="n">
+        <v>209</v>
+      </c>
+      <c r="F779" t="n">
+        <v>17293.3265</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-1072553.545351625</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>209</v>
+      </c>
+      <c r="C780" t="n">
+        <v>209</v>
+      </c>
+      <c r="D780" t="n">
+        <v>209</v>
+      </c>
+      <c r="E780" t="n">
+        <v>209</v>
+      </c>
+      <c r="F780" t="n">
+        <v>1056.9602</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-1073610.505551626</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>209</v>
+      </c>
+      <c r="C781" t="n">
+        <v>209</v>
+      </c>
+      <c r="D781" t="n">
+        <v>209</v>
+      </c>
+      <c r="E781" t="n">
+        <v>209</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1533.7535</v>
+      </c>
+      <c r="G781" t="n">
+        <v>-1073610.505551626</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>209</v>
+      </c>
+      <c r="C782" t="n">
+        <v>209</v>
+      </c>
+      <c r="D782" t="n">
+        <v>209</v>
+      </c>
+      <c r="E782" t="n">
+        <v>209</v>
+      </c>
+      <c r="F782" t="n">
+        <v>1932.6494</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-1073610.505551626</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="C783" t="n">
+        <v>210</v>
+      </c>
+      <c r="D783" t="n">
+        <v>210</v>
+      </c>
+      <c r="E783" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="F783" t="n">
+        <v>150.4853</v>
+      </c>
+      <c r="G783" t="n">
+        <v>-1073460.020251625</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>209</v>
+      </c>
+      <c r="C784" t="n">
+        <v>209</v>
+      </c>
+      <c r="D784" t="n">
+        <v>210</v>
+      </c>
+      <c r="E784" t="n">
+        <v>209</v>
+      </c>
+      <c r="F784" t="n">
+        <v>16292.2269</v>
+      </c>
+      <c r="G784" t="n">
+        <v>-1089752.247151625</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="n">
+        <v>1</v>
+      </c>
+      <c r="M784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="C785" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="D785" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="E785" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="F785" t="n">
+        <v>2522.9295</v>
+      </c>
+      <c r="G785" t="n">
+        <v>-1087229.317651625</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="n">
+        <v>1</v>
+      </c>
+      <c r="M785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="C786" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="D786" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="E786" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="F786" t="n">
+        <v>4030.4236</v>
+      </c>
+      <c r="G786" t="n">
+        <v>-1083198.894051625</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="n">
+        <v>1</v>
+      </c>
+      <c r="M786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="C787" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="D787" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="E787" t="n">
+        <v>209</v>
+      </c>
+      <c r="F787" t="n">
+        <v>8961.2199</v>
+      </c>
+      <c r="G787" t="n">
+        <v>-1074237.674151625</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="n">
+        <v>1</v>
+      </c>
+      <c r="M787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="C788" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="D788" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="E788" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="F788" t="n">
+        <v>141.4764</v>
+      </c>
+      <c r="G788" t="n">
+        <v>-1074096.197751625</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="n">
+        <v>1</v>
+      </c>
+      <c r="M788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="C789" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="D789" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="E789" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="F789" t="n">
+        <v>14.3404</v>
+      </c>
+      <c r="G789" t="n">
+        <v>-1074110.538151625</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="n">
+        <v>1</v>
+      </c>
+      <c r="M789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="C790" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="D790" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="E790" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="F790" t="n">
+        <v>3</v>
+      </c>
+      <c r="G790" t="n">
+        <v>-1074107.538151625</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="n">
+        <v>1</v>
+      </c>
+      <c r="M790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="C791" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="D791" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="E791" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="F791" t="n">
+        <v>573.7319</v>
+      </c>
+      <c r="G791" t="n">
+        <v>-1074681.270051625</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="n">
+        <v>1</v>
+      </c>
+      <c r="M791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>209</v>
+      </c>
+      <c r="C792" t="n">
+        <v>209</v>
+      </c>
+      <c r="D792" t="n">
+        <v>209</v>
+      </c>
+      <c r="E792" t="n">
+        <v>209</v>
+      </c>
+      <c r="F792" t="n">
+        <v>3219.4043</v>
+      </c>
+      <c r="G792" t="n">
+        <v>-1077900.674351625</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="n">
+        <v>1</v>
+      </c>
+      <c r="M792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>209</v>
+      </c>
+      <c r="C793" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="D793" t="n">
+        <v>209</v>
+      </c>
+      <c r="E793" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="F793" t="n">
+        <v>18706.9369</v>
+      </c>
+      <c r="G793" t="n">
+        <v>-1096607.611251625</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="n">
+        <v>1</v>
+      </c>
+      <c r="M793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C794" t="n">
+        <v>205</v>
+      </c>
+      <c r="D794" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="E794" t="n">
+        <v>205</v>
+      </c>
+      <c r="F794" t="n">
+        <v>43819.3497</v>
+      </c>
+      <c r="G794" t="n">
+        <v>-1140426.960951625</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="n">
+        <v>1</v>
+      </c>
+      <c r="M794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="C795" t="n">
+        <v>205</v>
+      </c>
+      <c r="D795" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="E795" t="n">
+        <v>205</v>
+      </c>
+      <c r="F795" t="n">
+        <v>349.3313</v>
+      </c>
+      <c r="G795" t="n">
+        <v>-1140426.960951625</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="n">
+        <v>1</v>
+      </c>
+      <c r="M795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="C796" t="n">
+        <v>205</v>
+      </c>
+      <c r="D796" t="n">
+        <v>205</v>
+      </c>
+      <c r="E796" t="n">
+        <v>204.2</v>
+      </c>
+      <c r="F796" t="n">
+        <v>587.4803000000001</v>
+      </c>
+      <c r="G796" t="n">
+        <v>-1140426.960951625</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="n">
+        <v>1</v>
+      </c>
+      <c r="M796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>205</v>
+      </c>
+      <c r="C797" t="n">
+        <v>205</v>
+      </c>
+      <c r="D797" t="n">
+        <v>205</v>
+      </c>
+      <c r="E797" t="n">
+        <v>205</v>
+      </c>
+      <c r="F797" t="n">
+        <v>1092.8349</v>
+      </c>
+      <c r="G797" t="n">
+        <v>-1140426.960951625</v>
+      </c>
+      <c r="H797" t="n">
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="n">
+        <v>1</v>
+      </c>
+      <c r="M797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>205</v>
+      </c>
+      <c r="C798" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="D798" t="n">
+        <v>211</v>
+      </c>
+      <c r="E798" t="n">
+        <v>205</v>
+      </c>
+      <c r="F798" t="n">
+        <v>17770.8014</v>
+      </c>
+      <c r="G798" t="n">
+        <v>-1122656.159551625</v>
+      </c>
+      <c r="H798" t="n">
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="n">
+        <v>1</v>
+      </c>
+      <c r="M798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>208</v>
+      </c>
+      <c r="C799" t="n">
+        <v>208</v>
+      </c>
+      <c r="D799" t="n">
+        <v>208</v>
+      </c>
+      <c r="E799" t="n">
+        <v>208</v>
+      </c>
+      <c r="F799" t="n">
+        <v>23.2397</v>
+      </c>
+      <c r="G799" t="n">
+        <v>-1122632.919851625</v>
+      </c>
+      <c r="H799" t="n">
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="n">
+        <v>1</v>
+      </c>
+      <c r="M799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>208</v>
+      </c>
+      <c r="C800" t="n">
+        <v>208</v>
+      </c>
+      <c r="D800" t="n">
+        <v>208</v>
+      </c>
+      <c r="E800" t="n">
+        <v>208</v>
+      </c>
+      <c r="F800" t="n">
+        <v>2742.4435</v>
+      </c>
+      <c r="G800" t="n">
+        <v>-1122632.919851625</v>
+      </c>
+      <c r="H800" t="n">
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="n">
+        <v>1</v>
+      </c>
+      <c r="M800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>208</v>
+      </c>
+      <c r="C801" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="D801" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="E801" t="n">
+        <v>208</v>
+      </c>
+      <c r="F801" t="n">
+        <v>1013.7704</v>
+      </c>
+      <c r="G801" t="n">
+        <v>-1121619.149451625</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="n">
+        <v>1</v>
+      </c>
+      <c r="M801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="C802" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="D802" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="E802" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="F802" t="n">
+        <v>3192.6055</v>
+      </c>
+      <c r="G802" t="n">
+        <v>-1118426.543951625</v>
+      </c>
+      <c r="H802" t="n">
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="n">
+        <v>1</v>
+      </c>
+      <c r="M802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="C803" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="D803" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="E803" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="F803" t="n">
+        <v>1803.8223</v>
+      </c>
+      <c r="G803" t="n">
+        <v>-1116622.721651625</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="n">
+        <v>1</v>
+      </c>
+      <c r="M803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="C804" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="D804" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="E804" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="F804" t="n">
+        <v>28337.0621</v>
+      </c>
+      <c r="G804" t="n">
+        <v>-1088285.659551625</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="n">
+        <v>1</v>
+      </c>
+      <c r="M804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="C805" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="D805" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="E805" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="F805" t="n">
+        <v>28055.5894</v>
+      </c>
+      <c r="G805" t="n">
+        <v>-1060230.070151625</v>
+      </c>
+      <c r="H805" t="n">
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="n">
+        <v>1</v>
+      </c>
+      <c r="M805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="C806" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="D806" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="E806" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="F806" t="n">
+        <v>3149.9216</v>
+      </c>
+      <c r="G806" t="n">
+        <v>-1063379.991751625</v>
+      </c>
+      <c r="H806" t="n">
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="n">
+        <v>1</v>
+      </c>
+      <c r="M806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="C807" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="D807" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="E807" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="F807" t="n">
+        <v>3234.4503</v>
+      </c>
+      <c r="G807" t="n">
+        <v>-1066614.442051625</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="n">
+        <v>1</v>
+      </c>
+      <c r="M807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="C808" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="D808" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="E808" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="F808" t="n">
+        <v>3319.145</v>
+      </c>
+      <c r="G808" t="n">
+        <v>-1069933.587051625</v>
+      </c>
+      <c r="H808" t="n">
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="n">
+        <v>1</v>
+      </c>
+      <c r="M808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>213</v>
+      </c>
+      <c r="C809" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="D809" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="E809" t="n">
+        <v>213</v>
+      </c>
+      <c r="F809" t="n">
+        <v>1416.894098639</v>
+      </c>
+      <c r="G809" t="n">
+        <v>-1069933.587051625</v>
+      </c>
+      <c r="H809" t="n">
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="n">
+        <v>1</v>
+      </c>
+      <c r="M809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>212</v>
+      </c>
+      <c r="C810" t="n">
+        <v>206</v>
+      </c>
+      <c r="D810" t="n">
+        <v>212</v>
+      </c>
+      <c r="E810" t="n">
+        <v>206</v>
+      </c>
+      <c r="F810" t="n">
+        <v>1507.5413</v>
+      </c>
+      <c r="G810" t="n">
+        <v>-1071441.128351625</v>
+      </c>
+      <c r="H810" t="n">
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="n">
+        <v>1</v>
+      </c>
+      <c r="M810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="C811" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="D811" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="E811" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="F811" t="n">
+        <v>1992.8369</v>
+      </c>
+      <c r="G811" t="n">
+        <v>-1069448.291451625</v>
+      </c>
+      <c r="H811" t="n">
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="n">
+        <v>1</v>
+      </c>
+      <c r="M811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="C812" t="n">
+        <v>207</v>
+      </c>
+      <c r="D812" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="E812" t="n">
+        <v>207</v>
+      </c>
+      <c r="F812" t="n">
+        <v>3229.7549</v>
+      </c>
+      <c r="G812" t="n">
+        <v>-1066218.536551625</v>
+      </c>
+      <c r="H812" t="n">
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="n">
+        <v>1</v>
+      </c>
+      <c r="M812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="n">
+        <v>211</v>
+      </c>
+      <c r="C813" t="n">
+        <v>211</v>
+      </c>
+      <c r="D813" t="n">
+        <v>211</v>
+      </c>
+      <c r="E813" t="n">
+        <v>211</v>
+      </c>
+      <c r="F813" t="n">
+        <v>3</v>
+      </c>
+      <c r="G813" t="n">
+        <v>-1066215.536551625</v>
+      </c>
+      <c r="H813" t="n">
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="n">
+        <v>1</v>
+      </c>
+      <c r="M813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="C814" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="D814" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="E814" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="F814" t="n">
+        <v>645.6286</v>
+      </c>
+      <c r="G814" t="n">
+        <v>-1066861.165151625</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="n">
+        <v>1</v>
+      </c>
+      <c r="M814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>211</v>
+      </c>
+      <c r="C815" t="n">
+        <v>211</v>
+      </c>
+      <c r="D815" t="n">
+        <v>211</v>
+      </c>
+      <c r="E815" t="n">
+        <v>211</v>
+      </c>
+      <c r="F815" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="G815" t="n">
+        <v>-1066813.205151625</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="n">
+        <v>1</v>
+      </c>
+      <c r="M815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="C816" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="D816" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="E816" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="F816" t="n">
+        <v>1687.1456</v>
+      </c>
+      <c r="G816" t="n">
+        <v>-1068500.350751625</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="n">
+        <v>1</v>
+      </c>
+      <c r="M816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="C817" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="D817" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="E817" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="F817" t="n">
+        <v>1538.5066</v>
+      </c>
+      <c r="G817" t="n">
+        <v>-1066961.844151625</v>
+      </c>
+      <c r="H817" t="n">
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="n">
+        <v>1</v>
+      </c>
+      <c r="M817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="C818" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="D818" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="E818" t="n">
+        <v>208</v>
+      </c>
+      <c r="F818" t="n">
+        <v>1321.6682</v>
+      </c>
+      <c r="G818" t="n">
+        <v>-1065640.175951625</v>
+      </c>
+      <c r="H818" t="n">
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="J818" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="n">
+        <v>1</v>
+      </c>
+      <c r="M818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="C819" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="D819" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="E819" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="F819" t="n">
+        <v>1525.9165</v>
+      </c>
+      <c r="G819" t="n">
+        <v>-1067166.092451625</v>
+      </c>
+      <c r="H819" t="n">
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="J819" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="K819" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>206</v>
-      </c>
-      <c r="C730" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="D730" t="n">
-        <v>206</v>
-      </c>
-      <c r="E730" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="F730" t="n">
-        <v>302.0961</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-991442.7035592654</v>
-      </c>
-      <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="J730" t="n">
-        <v>206</v>
-      </c>
-      <c r="K730" t="inlineStr">
+      <c r="L819" t="n">
+        <v>1</v>
+      </c>
+      <c r="M819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>207</v>
+      </c>
+      <c r="C820" t="n">
+        <v>206.1</v>
+      </c>
+      <c r="D820" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="E820" t="n">
+        <v>206.1</v>
+      </c>
+      <c r="F820" t="n">
+        <v>5332.1826</v>
+      </c>
+      <c r="G820" t="n">
+        <v>-1072498.275051625</v>
+      </c>
+      <c r="H820" t="n">
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="J820" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="K820" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="C731" t="n">
-        <v>206</v>
-      </c>
-      <c r="D731" t="n">
-        <v>206</v>
-      </c>
-      <c r="E731" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="F731" t="n">
-        <v>7674.4342</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-983768.2693592653</v>
-      </c>
-      <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="J731" t="n">
-        <v>206</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>205.5</v>
-      </c>
-      <c r="C732" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="D732" t="n">
-        <v>205.5</v>
-      </c>
-      <c r="E732" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="F732" t="n">
-        <v>8775.989299999999</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-992544.2586592654</v>
-      </c>
-      <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>206</v>
-      </c>
-      <c r="J732" t="n">
-        <v>206</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="C733" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="D733" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="E733" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="F733" t="n">
-        <v>771.6908</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-992544.2586592654</v>
-      </c>
-      <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="J733" t="n">
-        <v>206</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="C734" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="D734" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="E734" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="F734" t="n">
-        <v>1702.2586</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-990842.0000592654</v>
-      </c>
-      <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="J734" t="n">
-        <v>206</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>206</v>
-      </c>
-      <c r="C735" t="n">
-        <v>207</v>
-      </c>
-      <c r="D735" t="n">
-        <v>207</v>
-      </c>
-      <c r="E735" t="n">
-        <v>206</v>
-      </c>
-      <c r="F735" t="n">
-        <v>11073.2478</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-979768.7522592654</v>
-      </c>
-      <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="J735" t="n">
-        <v>206</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>209</v>
-      </c>
-      <c r="C736" t="n">
-        <v>209.1</v>
-      </c>
-      <c r="D736" t="n">
-        <v>209.1</v>
-      </c>
-      <c r="E736" t="n">
-        <v>209</v>
-      </c>
-      <c r="F736" t="n">
-        <v>8921.3295</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-970847.4227592654</v>
-      </c>
-      <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>206</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>210</v>
-      </c>
-      <c r="C737" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="D737" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="E737" t="n">
-        <v>210</v>
-      </c>
-      <c r="F737" t="n">
-        <v>2174.2407</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-968673.1820592654</v>
-      </c>
-      <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>206</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="C738" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="D738" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="E738" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="F738" t="n">
-        <v>125.191</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-968673.1820592654</v>
-      </c>
-      <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>206</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="C739" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="D739" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="E739" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="F739" t="n">
-        <v>1042.5183</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-967630.6637592654</v>
-      </c>
-      <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>206</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="C740" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="D740" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="E740" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="F740" t="n">
-        <v>9521.4696</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-967630.6637592654</v>
-      </c>
-      <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>206</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="C741" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="D741" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="E741" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="F741" t="n">
-        <v>429.5013</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-968060.1650592654</v>
-      </c>
-      <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>206</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="C742" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="D742" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="E742" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="F742" t="n">
-        <v>389.6273</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-968449.7923592655</v>
-      </c>
-      <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>206</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="C743" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="D743" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="E743" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="F743" t="n">
-        <v>1895.494</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-966554.2983592656</v>
-      </c>
-      <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>206</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="C744" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="D744" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="E744" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="F744" t="n">
-        <v>2128.9769</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-968683.2752592656</v>
-      </c>
-      <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>206</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>210</v>
-      </c>
-      <c r="C745" t="n">
-        <v>210</v>
-      </c>
-      <c r="D745" t="n">
-        <v>210</v>
-      </c>
-      <c r="E745" t="n">
-        <v>210</v>
-      </c>
-      <c r="F745" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-968697.4052592656</v>
-      </c>
-      <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>206</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>209</v>
-      </c>
-      <c r="C746" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="D746" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="E746" t="n">
-        <v>209</v>
-      </c>
-      <c r="F746" t="n">
-        <v>2840.5664</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-965856.8388592656</v>
-      </c>
-      <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>206</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="C747" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="D747" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="E747" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="F747" t="n">
-        <v>618.188</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-965856.8388592656</v>
-      </c>
-      <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>206</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="C748" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="D748" t="n">
-        <v>209</v>
-      </c>
-      <c r="E748" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="F748" t="n">
-        <v>5886.6257</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-971743.4645592655</v>
-      </c>
-      <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>206</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="C749" t="n">
-        <v>207</v>
-      </c>
-      <c r="D749" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="E749" t="n">
-        <v>207</v>
-      </c>
-      <c r="F749" t="n">
-        <v>5106.7761</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-976850.2406592655</v>
-      </c>
-      <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>206</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>207</v>
-      </c>
-      <c r="C750" t="n">
-        <v>207</v>
-      </c>
-      <c r="D750" t="n">
-        <v>207</v>
-      </c>
-      <c r="E750" t="n">
-        <v>207</v>
-      </c>
-      <c r="F750" t="n">
-        <v>228.4284</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-976850.2406592655</v>
-      </c>
-      <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>206</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="C751" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="D751" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="E751" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="F751" t="n">
-        <v>1903.3175</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-974946.9231592655</v>
-      </c>
-      <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>206</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>208</v>
-      </c>
-      <c r="C752" t="n">
-        <v>208</v>
-      </c>
-      <c r="D752" t="n">
-        <v>208</v>
-      </c>
-      <c r="E752" t="n">
-        <v>208</v>
-      </c>
-      <c r="F752" t="n">
-        <v>218.2981</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-975165.2212592656</v>
-      </c>
-      <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>206</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>207</v>
-      </c>
-      <c r="C753" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="D753" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="E753" t="n">
-        <v>207</v>
-      </c>
-      <c r="F753" t="n">
-        <v>4560.454134159</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-970604.7671251065</v>
-      </c>
-      <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>206</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="C754" t="n">
-        <v>210</v>
-      </c>
-      <c r="D754" t="n">
-        <v>210</v>
-      </c>
-      <c r="E754" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="F754" t="n">
-        <v>1500.764104888</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-969104.0030202186</v>
-      </c>
-      <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>206</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="C755" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="D755" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="E755" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="F755" t="n">
-        <v>1717.6793</v>
-      </c>
-      <c r="G755" t="n">
-        <v>-970821.6823202185</v>
-      </c>
-      <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>206</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
-      <c r="M755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="C756" t="n">
-        <v>209.7</v>
-      </c>
-      <c r="D756" t="n">
-        <v>209.7</v>
-      </c>
-      <c r="E756" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="F756" t="n">
-        <v>3520.0018</v>
-      </c>
-      <c r="G756" t="n">
-        <v>-967301.6805202186</v>
-      </c>
-      <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>206</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L756" t="n">
-        <v>1</v>
-      </c>
-      <c r="M756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="C757" t="n">
-        <v>208</v>
-      </c>
-      <c r="D757" t="n">
-        <v>208</v>
-      </c>
-      <c r="E757" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="F757" t="n">
-        <v>4904.4108</v>
-      </c>
-      <c r="G757" t="n">
-        <v>-972206.0913202185</v>
-      </c>
-      <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>206</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="C758" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="D758" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="E758" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="F758" t="n">
-        <v>1002.0675</v>
-      </c>
-      <c r="G758" t="n">
-        <v>-973208.1588202185</v>
-      </c>
-      <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>206</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L758" t="n">
-        <v>1</v>
-      </c>
-      <c r="M758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>208</v>
-      </c>
-      <c r="C759" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="D759" t="n">
-        <v>208</v>
-      </c>
-      <c r="E759" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="F759" t="n">
-        <v>20519.7122</v>
-      </c>
-      <c r="G759" t="n">
-        <v>-993727.8710202185</v>
-      </c>
-      <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>206</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L759" t="n">
-        <v>1</v>
-      </c>
-      <c r="M759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>208</v>
-      </c>
-      <c r="C760" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="D760" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="E760" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="F760" t="n">
-        <v>4015.1486</v>
-      </c>
-      <c r="G760" t="n">
-        <v>-993727.8710202185</v>
-      </c>
-      <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>206</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="C761" t="n">
-        <v>206.6</v>
-      </c>
-      <c r="D761" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="E761" t="n">
-        <v>206.6</v>
-      </c>
-      <c r="F761" t="n">
-        <v>18839.3033</v>
-      </c>
-      <c r="G761" t="n">
-        <v>-1012567.174320219</v>
-      </c>
-      <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>206</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="C762" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="D762" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="E762" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="F762" t="n">
-        <v>24942.169</v>
-      </c>
-      <c r="G762" t="n">
-        <v>-1037509.343320218</v>
-      </c>
-      <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>206</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>206</v>
-      </c>
-      <c r="C763" t="n">
-        <v>206</v>
-      </c>
-      <c r="D763" t="n">
-        <v>206</v>
-      </c>
-      <c r="E763" t="n">
-        <v>206</v>
-      </c>
-      <c r="F763" t="n">
-        <v>88.8984</v>
-      </c>
-      <c r="G763" t="n">
-        <v>-1037420.444920219</v>
-      </c>
-      <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>206</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>209.7</v>
-      </c>
-      <c r="C764" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="D764" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="E764" t="n">
-        <v>209.7</v>
-      </c>
-      <c r="F764" t="n">
-        <v>13504.6963</v>
-      </c>
-      <c r="G764" t="n">
-        <v>-1023915.748620219</v>
-      </c>
-      <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>206</v>
-      </c>
-      <c r="J764" t="n">
-        <v>206</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L764" t="n">
-        <v>1</v>
-      </c>
-      <c r="M764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="C765" t="n">
-        <v>211</v>
-      </c>
-      <c r="D765" t="n">
-        <v>211</v>
-      </c>
-      <c r="E765" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="F765" t="n">
-        <v>9691.370800000001</v>
-      </c>
-      <c r="G765" t="n">
-        <v>-1014224.377820219</v>
-      </c>
-      <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>206</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L765" t="n">
-        <v>1</v>
-      </c>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="C766" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="D766" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="E766" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="F766" t="n">
-        <v>19714.6245</v>
-      </c>
-      <c r="G766" t="n">
-        <v>-1033939.002320219</v>
-      </c>
-      <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>206</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>208</v>
-      </c>
-      <c r="C767" t="n">
-        <v>208</v>
-      </c>
-      <c r="D767" t="n">
-        <v>208</v>
-      </c>
-      <c r="E767" t="n">
-        <v>208</v>
-      </c>
-      <c r="F767" t="n">
-        <v>609.8776</v>
-      </c>
-      <c r="G767" t="n">
-        <v>-1034548.879920219</v>
-      </c>
-      <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>206</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L767" t="n">
-        <v>1</v>
-      </c>
-      <c r="M767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>208</v>
-      </c>
-      <c r="C768" t="n">
-        <v>208</v>
-      </c>
-      <c r="D768" t="n">
-        <v>208</v>
-      </c>
-      <c r="E768" t="n">
-        <v>208</v>
-      </c>
-      <c r="F768" t="n">
-        <v>2411.5603</v>
-      </c>
-      <c r="G768" t="n">
-        <v>-1034548.879920219</v>
-      </c>
-      <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>206</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L768" t="n">
-        <v>1</v>
-      </c>
-      <c r="M768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>208</v>
-      </c>
-      <c r="C769" t="n">
-        <v>208</v>
-      </c>
-      <c r="D769" t="n">
-        <v>208</v>
-      </c>
-      <c r="E769" t="n">
-        <v>208</v>
-      </c>
-      <c r="F769" t="n">
-        <v>621.9281999999999</v>
-      </c>
-      <c r="G769" t="n">
-        <v>-1034548.879920219</v>
-      </c>
-      <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>206</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L769" t="n">
-        <v>1</v>
-      </c>
-      <c r="M769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="C770" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="D770" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="E770" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="F770" t="n">
-        <v>915.6667</v>
-      </c>
-      <c r="G770" t="n">
-        <v>-1035464.546620219</v>
-      </c>
-      <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>206</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L770" t="n">
-        <v>1</v>
-      </c>
-      <c r="M770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>206.3</v>
-      </c>
-      <c r="C771" t="n">
-        <v>205</v>
-      </c>
-      <c r="D771" t="n">
-        <v>206.3</v>
-      </c>
-      <c r="E771" t="n">
-        <v>205</v>
-      </c>
-      <c r="F771" t="n">
-        <v>42899.6916</v>
-      </c>
-      <c r="G771" t="n">
-        <v>-1078364.238220219</v>
-      </c>
-      <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>206</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L771" t="n">
-        <v>1</v>
-      </c>
-      <c r="M771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>204.7</v>
-      </c>
-      <c r="C772" t="n">
-        <v>204.6</v>
-      </c>
-      <c r="D772" t="n">
-        <v>204.7</v>
-      </c>
-      <c r="E772" t="n">
-        <v>204.6</v>
-      </c>
-      <c r="F772" t="n">
-        <v>7770.7946</v>
-      </c>
-      <c r="G772" t="n">
-        <v>-1086135.032820218</v>
-      </c>
-      <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>206</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L772" t="n">
-        <v>1</v>
-      </c>
-      <c r="M772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>204.6</v>
-      </c>
-      <c r="C773" t="n">
-        <v>207.6</v>
-      </c>
-      <c r="D773" t="n">
-        <v>207.6</v>
-      </c>
-      <c r="E773" t="n">
-        <v>204.6</v>
-      </c>
-      <c r="F773" t="n">
-        <v>1748.777768593</v>
-      </c>
-      <c r="G773" t="n">
-        <v>-1084386.255051625</v>
-      </c>
-      <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>206</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L773" t="n">
-        <v>1</v>
-      </c>
-      <c r="M773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="C774" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="D774" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="E774" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="F774" t="n">
-        <v>12</v>
-      </c>
-      <c r="G774" t="n">
-        <v>-1084398.255051625</v>
-      </c>
-      <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>206</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L774" t="n">
-        <v>1</v>
-      </c>
-      <c r="M774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="C775" t="n">
-        <v>208.8</v>
-      </c>
-      <c r="D775" t="n">
-        <v>208.8</v>
-      </c>
-      <c r="E775" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="F775" t="n">
-        <v>3287.625</v>
-      </c>
-      <c r="G775" t="n">
-        <v>-1081110.630051625</v>
-      </c>
-      <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>206</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L775" t="n">
-        <v>1</v>
-      </c>
-      <c r="M775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>208.8</v>
-      </c>
-      <c r="C776" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="D776" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="E776" t="n">
-        <v>208.8</v>
-      </c>
-      <c r="F776" t="n">
-        <v>4783.3253</v>
-      </c>
-      <c r="G776" t="n">
-        <v>-1076327.304751626</v>
-      </c>
-      <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>208.8</v>
-      </c>
-      <c r="J776" t="n">
-        <v>206</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L776" t="n">
-        <v>1</v>
-      </c>
-      <c r="M776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="C777" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="D777" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="E777" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="F777" t="n">
-        <v>3</v>
-      </c>
-      <c r="G777" t="n">
-        <v>-1076327.304751626</v>
-      </c>
-      <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>206</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="C778" t="n">
-        <v>210</v>
-      </c>
-      <c r="D778" t="n">
-        <v>210</v>
-      </c>
-      <c r="E778" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="F778" t="n">
-        <v>3773.7594</v>
-      </c>
-      <c r="G778" t="n">
-        <v>-1072553.545351625</v>
-      </c>
-      <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>206</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L778" t="n">
-        <v>1</v>
-      </c>
-      <c r="M778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>209</v>
-      </c>
-      <c r="C779" t="n">
-        <v>210</v>
-      </c>
-      <c r="D779" t="n">
-        <v>210</v>
-      </c>
-      <c r="E779" t="n">
-        <v>209</v>
-      </c>
-      <c r="F779" t="n">
-        <v>17293.3265</v>
-      </c>
-      <c r="G779" t="n">
-        <v>-1072553.545351625</v>
-      </c>
-      <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>206</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>209</v>
-      </c>
-      <c r="C780" t="n">
-        <v>209</v>
-      </c>
-      <c r="D780" t="n">
-        <v>209</v>
-      </c>
-      <c r="E780" t="n">
-        <v>209</v>
-      </c>
-      <c r="F780" t="n">
-        <v>1056.9602</v>
-      </c>
-      <c r="G780" t="n">
-        <v>-1073610.505551626</v>
-      </c>
-      <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>206</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>209</v>
-      </c>
-      <c r="C781" t="n">
-        <v>209</v>
-      </c>
-      <c r="D781" t="n">
-        <v>209</v>
-      </c>
-      <c r="E781" t="n">
-        <v>209</v>
-      </c>
-      <c r="F781" t="n">
-        <v>1533.7535</v>
-      </c>
-      <c r="G781" t="n">
-        <v>-1073610.505551626</v>
-      </c>
-      <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>206</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>209</v>
-      </c>
-      <c r="C782" t="n">
-        <v>209</v>
-      </c>
-      <c r="D782" t="n">
-        <v>209</v>
-      </c>
-      <c r="E782" t="n">
-        <v>209</v>
-      </c>
-      <c r="F782" t="n">
-        <v>1932.6494</v>
-      </c>
-      <c r="G782" t="n">
-        <v>-1073610.505551626</v>
-      </c>
-      <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>206</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="C783" t="n">
-        <v>210</v>
-      </c>
-      <c r="D783" t="n">
-        <v>210</v>
-      </c>
-      <c r="E783" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="F783" t="n">
-        <v>150.4853</v>
-      </c>
-      <c r="G783" t="n">
-        <v>-1073460.020251625</v>
-      </c>
-      <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>206</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>209</v>
-      </c>
-      <c r="C784" t="n">
-        <v>209</v>
-      </c>
-      <c r="D784" t="n">
-        <v>210</v>
-      </c>
-      <c r="E784" t="n">
-        <v>209</v>
-      </c>
-      <c r="F784" t="n">
-        <v>16292.2269</v>
-      </c>
-      <c r="G784" t="n">
-        <v>-1089752.247151625</v>
-      </c>
-      <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>206</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L784" t="n">
-        <v>1</v>
-      </c>
-      <c r="M784" t="inlineStr"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="C785" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="D785" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="E785" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="F785" t="n">
-        <v>2522.9295</v>
-      </c>
-      <c r="G785" t="n">
-        <v>-1087229.317651625</v>
-      </c>
-      <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>206</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L785" t="n">
-        <v>1</v>
-      </c>
-      <c r="M785" t="inlineStr"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="C786" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="D786" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="E786" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="F786" t="n">
-        <v>4030.4236</v>
-      </c>
-      <c r="G786" t="n">
-        <v>-1083198.894051625</v>
-      </c>
-      <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>206</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L786" t="n">
-        <v>1</v>
-      </c>
-      <c r="M786" t="inlineStr"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="C787" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="D787" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="E787" t="n">
-        <v>209</v>
-      </c>
-      <c r="F787" t="n">
-        <v>8961.2199</v>
-      </c>
-      <c r="G787" t="n">
-        <v>-1074237.674151625</v>
-      </c>
-      <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>206</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L787" t="n">
-        <v>1</v>
-      </c>
-      <c r="M787" t="inlineStr"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="n">
-        <v>211.5</v>
-      </c>
-      <c r="C788" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="D788" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="E788" t="n">
-        <v>211.5</v>
-      </c>
-      <c r="F788" t="n">
-        <v>141.4764</v>
-      </c>
-      <c r="G788" t="n">
-        <v>-1074096.197751625</v>
-      </c>
-      <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>206</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L788" t="n">
-        <v>1</v>
-      </c>
-      <c r="M788" t="inlineStr"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="C789" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="D789" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="E789" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="F789" t="n">
-        <v>14.3404</v>
-      </c>
-      <c r="G789" t="n">
-        <v>-1074110.538151625</v>
-      </c>
-      <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>206</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L789" t="n">
-        <v>1</v>
-      </c>
-      <c r="M789" t="inlineStr"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="C790" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="D790" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="E790" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="F790" t="n">
-        <v>3</v>
-      </c>
-      <c r="G790" t="n">
-        <v>-1074107.538151625</v>
-      </c>
-      <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>206</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L790" t="n">
-        <v>1</v>
-      </c>
-      <c r="M790" t="inlineStr"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="C791" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="D791" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="E791" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="F791" t="n">
-        <v>573.7319</v>
-      </c>
-      <c r="G791" t="n">
-        <v>-1074681.270051625</v>
-      </c>
-      <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>206</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L791" t="n">
-        <v>1</v>
-      </c>
-      <c r="M791" t="inlineStr"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="n">
-        <v>209</v>
-      </c>
-      <c r="C792" t="n">
-        <v>209</v>
-      </c>
-      <c r="D792" t="n">
-        <v>209</v>
-      </c>
-      <c r="E792" t="n">
-        <v>209</v>
-      </c>
-      <c r="F792" t="n">
-        <v>3219.4043</v>
-      </c>
-      <c r="G792" t="n">
-        <v>-1077900.674351625</v>
-      </c>
-      <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>206</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L792" t="n">
-        <v>1</v>
-      </c>
-      <c r="M792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="n">
-        <v>209</v>
-      </c>
-      <c r="C793" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="D793" t="n">
-        <v>209</v>
-      </c>
-      <c r="E793" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="F793" t="n">
-        <v>18706.9369</v>
-      </c>
-      <c r="G793" t="n">
-        <v>-1096607.611251625</v>
-      </c>
-      <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>206</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L793" t="n">
-        <v>1</v>
-      </c>
-      <c r="M793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="C794" t="n">
-        <v>205</v>
-      </c>
-      <c r="D794" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="E794" t="n">
-        <v>205</v>
-      </c>
-      <c r="F794" t="n">
-        <v>43819.3497</v>
-      </c>
-      <c r="G794" t="n">
-        <v>-1140426.960951625</v>
-      </c>
-      <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>206</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L794" t="n">
-        <v>1</v>
-      </c>
-      <c r="M794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="C795" t="n">
-        <v>205</v>
-      </c>
-      <c r="D795" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="E795" t="n">
-        <v>205</v>
-      </c>
-      <c r="F795" t="n">
-        <v>349.3313</v>
-      </c>
-      <c r="G795" t="n">
-        <v>-1140426.960951625</v>
-      </c>
-      <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>206</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L795" t="n">
-        <v>1</v>
-      </c>
-      <c r="M795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="n">
-        <v>204.5</v>
-      </c>
-      <c r="C796" t="n">
-        <v>205</v>
-      </c>
-      <c r="D796" t="n">
-        <v>205</v>
-      </c>
-      <c r="E796" t="n">
-        <v>204.2</v>
-      </c>
-      <c r="F796" t="n">
-        <v>587.4803000000001</v>
-      </c>
-      <c r="G796" t="n">
-        <v>-1140426.960951625</v>
-      </c>
-      <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>206</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L796" t="n">
-        <v>1</v>
-      </c>
-      <c r="M796" t="inlineStr"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="n">
-        <v>205</v>
-      </c>
-      <c r="C797" t="n">
-        <v>205</v>
-      </c>
-      <c r="D797" t="n">
-        <v>205</v>
-      </c>
-      <c r="E797" t="n">
-        <v>205</v>
-      </c>
-      <c r="F797" t="n">
-        <v>1092.8349</v>
-      </c>
-      <c r="G797" t="n">
-        <v>-1140426.960951625</v>
-      </c>
-      <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>206</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L797" t="n">
-        <v>1</v>
-      </c>
-      <c r="M797" t="inlineStr"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="n">
-        <v>205</v>
-      </c>
-      <c r="C798" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="D798" t="n">
-        <v>211</v>
-      </c>
-      <c r="E798" t="n">
-        <v>205</v>
-      </c>
-      <c r="F798" t="n">
-        <v>17770.8014</v>
-      </c>
-      <c r="G798" t="n">
-        <v>-1122656.159551625</v>
-      </c>
-      <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>206</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L798" t="n">
-        <v>1</v>
-      </c>
-      <c r="M798" t="inlineStr"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="n">
-        <v>208</v>
-      </c>
-      <c r="C799" t="n">
-        <v>208</v>
-      </c>
-      <c r="D799" t="n">
-        <v>208</v>
-      </c>
-      <c r="E799" t="n">
-        <v>208</v>
-      </c>
-      <c r="F799" t="n">
-        <v>23.2397</v>
-      </c>
-      <c r="G799" t="n">
-        <v>-1122632.919851625</v>
-      </c>
-      <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>206</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L799" t="n">
-        <v>1</v>
-      </c>
-      <c r="M799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="n">
-        <v>208</v>
-      </c>
-      <c r="C800" t="n">
-        <v>208</v>
-      </c>
-      <c r="D800" t="n">
-        <v>208</v>
-      </c>
-      <c r="E800" t="n">
-        <v>208</v>
-      </c>
-      <c r="F800" t="n">
-        <v>2742.4435</v>
-      </c>
-      <c r="G800" t="n">
-        <v>-1122632.919851625</v>
-      </c>
-      <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>206</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L800" t="n">
-        <v>1</v>
-      </c>
-      <c r="M800" t="inlineStr"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="n">
-        <v>208</v>
-      </c>
-      <c r="C801" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="D801" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="E801" t="n">
-        <v>208</v>
-      </c>
-      <c r="F801" t="n">
-        <v>1013.7704</v>
-      </c>
-      <c r="G801" t="n">
-        <v>-1121619.149451625</v>
-      </c>
-      <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>206</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L801" t="n">
-        <v>1</v>
-      </c>
-      <c r="M801" t="inlineStr"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="C802" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="D802" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="E802" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="F802" t="n">
-        <v>3192.6055</v>
-      </c>
-      <c r="G802" t="n">
-        <v>-1118426.543951625</v>
-      </c>
-      <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>206</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L802" t="n">
-        <v>1</v>
-      </c>
-      <c r="M802" t="inlineStr"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-      <c r="B803" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="C803" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="D803" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="E803" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="F803" t="n">
-        <v>1803.8223</v>
-      </c>
-      <c r="G803" t="n">
-        <v>-1116622.721651625</v>
-      </c>
-      <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>206</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L803" t="n">
-        <v>1</v>
-      </c>
-      <c r="M803" t="inlineStr"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-      <c r="B804" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="C804" t="n">
-        <v>213.9</v>
-      </c>
-      <c r="D804" t="n">
-        <v>213.9</v>
-      </c>
-      <c r="E804" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="F804" t="n">
-        <v>28337.0621</v>
-      </c>
-      <c r="G804" t="n">
-        <v>-1088285.659551625</v>
-      </c>
-      <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>206</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L804" t="n">
-        <v>1</v>
-      </c>
-      <c r="M804" t="inlineStr"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-      <c r="B805" t="n">
-        <v>213.9</v>
-      </c>
-      <c r="C805" t="n">
-        <v>218.8</v>
-      </c>
-      <c r="D805" t="n">
-        <v>219.1</v>
-      </c>
-      <c r="E805" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="F805" t="n">
-        <v>28055.5894</v>
-      </c>
-      <c r="G805" t="n">
-        <v>-1060230.070151625</v>
-      </c>
-      <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>206</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L805" t="n">
-        <v>1</v>
-      </c>
-      <c r="M805" t="inlineStr"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="B806" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="C806" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="D806" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="E806" t="n">
-        <v>211.7</v>
-      </c>
-      <c r="F806" t="n">
-        <v>3149.9216</v>
-      </c>
-      <c r="G806" t="n">
-        <v>-1063379.991751625</v>
-      </c>
-      <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>206</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L806" t="n">
-        <v>1</v>
-      </c>
-      <c r="M806" t="inlineStr"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B807" t="n">
-        <v>216.7</v>
-      </c>
-      <c r="C807" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="D807" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="E807" t="n">
-        <v>216.7</v>
-      </c>
-      <c r="F807" t="n">
-        <v>3234.4503</v>
-      </c>
-      <c r="G807" t="n">
-        <v>-1066614.442051625</v>
-      </c>
-      <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>206</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L807" t="n">
-        <v>1</v>
-      </c>
-      <c r="M807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="B808" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="C808" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="D808" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="E808" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="F808" t="n">
-        <v>3319.145</v>
-      </c>
-      <c r="G808" t="n">
-        <v>-1069933.587051625</v>
-      </c>
-      <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>206</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L808" t="n">
-        <v>1</v>
-      </c>
-      <c r="M808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="B809" t="n">
-        <v>213</v>
-      </c>
-      <c r="C809" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="D809" t="n">
-        <v>213.1</v>
-      </c>
-      <c r="E809" t="n">
-        <v>213</v>
-      </c>
-      <c r="F809" t="n">
-        <v>1416.894098639</v>
-      </c>
-      <c r="G809" t="n">
-        <v>-1069933.587051625</v>
-      </c>
-      <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>206</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L809" t="n">
-        <v>1</v>
-      </c>
-      <c r="M809" t="inlineStr"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B810" t="n">
-        <v>212</v>
-      </c>
-      <c r="C810" t="n">
-        <v>206</v>
-      </c>
-      <c r="D810" t="n">
-        <v>212</v>
-      </c>
-      <c r="E810" t="n">
-        <v>206</v>
-      </c>
-      <c r="F810" t="n">
-        <v>1507.5413</v>
-      </c>
-      <c r="G810" t="n">
-        <v>-1071441.128351625</v>
-      </c>
-      <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>206</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L810" t="n">
-        <v>1</v>
-      </c>
-      <c r="M810" t="inlineStr"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-      <c r="B811" t="n">
-        <v>211.7</v>
-      </c>
-      <c r="C811" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="D811" t="n">
-        <v>211.7</v>
-      </c>
-      <c r="E811" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="F811" t="n">
-        <v>1992.8369</v>
-      </c>
-      <c r="G811" t="n">
-        <v>-1069448.291451625</v>
-      </c>
-      <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>206</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L811" t="n">
-        <v>1</v>
-      </c>
-      <c r="M811" t="inlineStr"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="B812" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="C812" t="n">
-        <v>207</v>
-      </c>
-      <c r="D812" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="E812" t="n">
-        <v>207</v>
-      </c>
-      <c r="F812" t="n">
-        <v>3229.7549</v>
-      </c>
-      <c r="G812" t="n">
-        <v>-1066218.536551625</v>
-      </c>
-      <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>206</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L812" t="n">
-        <v>1</v>
-      </c>
-      <c r="M812" t="inlineStr"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B813" t="n">
-        <v>211</v>
-      </c>
-      <c r="C813" t="n">
-        <v>211</v>
-      </c>
-      <c r="D813" t="n">
-        <v>211</v>
-      </c>
-      <c r="E813" t="n">
-        <v>211</v>
-      </c>
-      <c r="F813" t="n">
-        <v>3</v>
-      </c>
-      <c r="G813" t="n">
-        <v>-1066215.536551625</v>
-      </c>
-      <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>206</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L813" t="n">
-        <v>1</v>
-      </c>
-      <c r="M813" t="inlineStr"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="C814" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="D814" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="E814" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="F814" t="n">
-        <v>645.6286</v>
-      </c>
-      <c r="G814" t="n">
-        <v>-1066861.165151625</v>
-      </c>
-      <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>206</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L814" t="n">
-        <v>1</v>
-      </c>
-      <c r="M814" t="inlineStr"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="n">
-        <v>211</v>
-      </c>
-      <c r="C815" t="n">
-        <v>211</v>
-      </c>
-      <c r="D815" t="n">
-        <v>211</v>
-      </c>
-      <c r="E815" t="n">
-        <v>211</v>
-      </c>
-      <c r="F815" t="n">
-        <v>47.96</v>
-      </c>
-      <c r="G815" t="n">
-        <v>-1066813.205151625</v>
-      </c>
-      <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>206</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L815" t="n">
-        <v>1</v>
-      </c>
-      <c r="M815" t="inlineStr"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B816" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="C816" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="D816" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="E816" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="F816" t="n">
-        <v>1687.1456</v>
-      </c>
-      <c r="G816" t="n">
-        <v>-1068500.350751625</v>
-      </c>
-      <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>206</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L816" t="n">
-        <v>1</v>
-      </c>
-      <c r="M816" t="inlineStr"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B817" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="C817" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="D817" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="E817" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="F817" t="n">
-        <v>1538.5066</v>
-      </c>
-      <c r="G817" t="n">
-        <v>-1066961.844151625</v>
-      </c>
-      <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>206</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L817" t="n">
-        <v>1</v>
-      </c>
-      <c r="M817" t="inlineStr"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="C818" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="D818" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="E818" t="n">
-        <v>208</v>
-      </c>
-      <c r="F818" t="n">
-        <v>1321.6682</v>
-      </c>
-      <c r="G818" t="n">
-        <v>-1065640.175951625</v>
-      </c>
-      <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>206</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L818" t="n">
-        <v>1</v>
-      </c>
-      <c r="M818" t="inlineStr"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="C819" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="D819" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="E819" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="F819" t="n">
-        <v>1525.9165</v>
-      </c>
-      <c r="G819" t="n">
-        <v>-1067166.092451625</v>
-      </c>
-      <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>206</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L819" t="n">
-        <v>1</v>
-      </c>
-      <c r="M819" t="inlineStr"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="n">
-        <v>207</v>
-      </c>
-      <c r="C820" t="n">
-        <v>206.1</v>
-      </c>
-      <c r="D820" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="E820" t="n">
-        <v>206.1</v>
-      </c>
-      <c r="F820" t="n">
-        <v>5332.1826</v>
-      </c>
-      <c r="G820" t="n">
-        <v>-1072498.275051625</v>
-      </c>
-      <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>206</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28052,11 +27498,13 @@
         <v>-1097359.020851625</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>206.1</v>
+      </c>
       <c r="J821" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -28095,7 +27543,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -28134,7 +27582,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -28175,7 +27623,7 @@
         <v>203.5</v>
       </c>
       <c r="J824" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -28216,7 +27664,7 @@
         <v>208</v>
       </c>
       <c r="J825" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -28257,7 +27705,7 @@
         <v>205.9</v>
       </c>
       <c r="J826" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28298,7 +27746,7 @@
         <v>203.5</v>
       </c>
       <c r="J827" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28339,7 +27787,7 @@
         <v>206.9</v>
       </c>
       <c r="J828" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28380,7 +27828,7 @@
         <v>206.9</v>
       </c>
       <c r="J829" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28421,7 +27869,7 @@
         <v>205</v>
       </c>
       <c r="J830" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28462,7 +27910,7 @@
         <v>207</v>
       </c>
       <c r="J831" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -28503,7 +27951,7 @@
         <v>207</v>
       </c>
       <c r="J832" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -28544,7 +27992,7 @@
         <v>207</v>
       </c>
       <c r="J833" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -28585,7 +28033,7 @@
         <v>203.4</v>
       </c>
       <c r="J834" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28620,11 +28068,13 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>209</v>
+      </c>
       <c r="J835" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28659,11 +28109,13 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J836" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28704,7 +28156,7 @@
         <v>207.8</v>
       </c>
       <c r="J837" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28739,11 +28191,13 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>208</v>
+      </c>
       <c r="J838" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28778,11 +28232,13 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J839" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -28817,11 +28273,13 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J840" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -28856,11 +28314,13 @@
         <v>-1146544.785051625</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>207.8</v>
+      </c>
       <c r="J841" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -28901,7 +28361,7 @@
         <v>205.1</v>
       </c>
       <c r="J842" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -28936,11 +28396,13 @@
         <v>-1144105.147051625</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>208</v>
+      </c>
       <c r="J843" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -28979,7 +28441,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -29018,7 +28480,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -29053,11 +28515,13 @@
         <v>-1143533.970751625</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>209.1</v>
+      </c>
       <c r="J846" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -29092,11 +28556,13 @@
         <v>-1145174.333751625</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>213</v>
+      </c>
       <c r="J847" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -29131,11 +28597,13 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>209.1</v>
+      </c>
       <c r="J848" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -29170,11 +28638,13 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>210</v>
+      </c>
       <c r="J849" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -29209,11 +28679,13 @@
         <v>-1148195.215151625</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>210</v>
+      </c>
       <c r="J850" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -29254,7 +28726,7 @@
         <v>205.9</v>
       </c>
       <c r="J851" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -29295,7 +28767,7 @@
         <v>211.9</v>
       </c>
       <c r="J852" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -29336,7 +28808,7 @@
         <v>209.9</v>
       </c>
       <c r="J853" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -29377,7 +28849,7 @@
         <v>210</v>
       </c>
       <c r="J854" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -29412,11 +28884,13 @@
         <v>-1169149.854351624</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>213</v>
+      </c>
       <c r="J855" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -29457,7 +28931,7 @@
         <v>207.1</v>
       </c>
       <c r="J856" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -29498,7 +28972,7 @@
         <v>207.1</v>
       </c>
       <c r="J857" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -29539,7 +29013,7 @@
         <v>211</v>
       </c>
       <c r="J858" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -29578,7 +29052,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29619,7 +29093,7 @@
         <v>207</v>
       </c>
       <c r="J860" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29660,7 +29134,7 @@
         <v>210.5</v>
       </c>
       <c r="J861" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29701,7 +29175,7 @@
         <v>210.5</v>
       </c>
       <c r="J862" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29742,7 +29216,7 @@
         <v>208.1</v>
       </c>
       <c r="J863" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29783,7 +29257,7 @@
         <v>207.1</v>
       </c>
       <c r="J864" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29824,7 +29298,7 @@
         <v>209.9</v>
       </c>
       <c r="J865" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29865,7 +29339,7 @@
         <v>209.9</v>
       </c>
       <c r="J866" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29906,7 +29380,7 @@
         <v>210.4</v>
       </c>
       <c r="J867" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29947,7 +29421,7 @@
         <v>208.1</v>
       </c>
       <c r="J868" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29988,7 +29462,7 @@
         <v>208.1</v>
       </c>
       <c r="J869" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -30029,7 +29503,7 @@
         <v>208.1</v>
       </c>
       <c r="J870" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -30070,7 +29544,7 @@
         <v>207.3</v>
       </c>
       <c r="J871" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -30111,7 +29585,7 @@
         <v>208.1</v>
       </c>
       <c r="J872" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -30152,7 +29626,7 @@
         <v>211.3</v>
       </c>
       <c r="J873" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
